--- a/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F646F2B5-0F06-4242-8EDC-4F17BE1CCCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{377343A7-C919-4775-B852-CD43772143ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{878982D1-5E09-4353-AAE3-61BA37CBE30B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B75CCC80-99A1-4F44-B85A-42F288E1C25A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
-    <t>Hogares con personas con alguna limitación en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>20,77%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,23%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>26,48%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>38,91%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
   </si>
   <si>
     <t>32,19%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>61,09%</t>
   </si>
   <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
   </si>
   <si>
     <t>67,81%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>32,62%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,49 @@
     <t>45,16%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
+    <t>49,67%</t>
   </si>
   <si>
     <t>53,03%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
+    <t>50,33%</t>
   </si>
   <si>
     <t>46,97%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +305,49 @@
     <t>59,39%</t>
   </si>
   <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
   </si>
   <si>
     <t>54,99%</t>
   </si>
   <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
+    <t>59,92%</t>
   </si>
   <si>
     <t>57,14%</t>
   </si>
   <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
   </si>
   <si>
     <t>45,01%</t>
   </si>
   <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
+    <t>40,08%</t>
   </si>
   <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,133 +356,139 @@
     <t>53,64%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>58,49%</t>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
   </si>
   <si>
     <t>46,36%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>41,51%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>37,83%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
   </si>
   <si>
     <t>43,52%</t>
   </si>
   <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
   </si>
   <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
   </si>
   <si>
     <t>56,48%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con personas con alguna limitación en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>27,45%</t>
+    <t>27,34%</t>
   </si>
   <si>
     <t>33,55%</t>
@@ -503,19 +497,19 @@
     <t>74,97%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>63,78%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
   </si>
   <si>
     <t>69,52%</t>
@@ -524,1051 +518,1057 @@
     <t>66,45%</t>
   </si>
   <si>
-    <t>72,55%</t>
+    <t>72,66%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
     <t>27,26%</t>
   </si>
   <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna limitación en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
+    <t>71,37%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>65,84%</t>
+    <t>59,45%</t>
   </si>
   <si>
     <t>65,32%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>28,63%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>34,16%</t>
+    <t>40,55%</t>
   </si>
   <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>61,88%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
   </si>
   <si>
     <t>63,87%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>69,5%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>30,5%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9A4A47-ADBE-485A-ABE4-B8B78AB38046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D34A61-B78E-4A19-AA0E-A5F3E240CD87}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2572,10 +2572,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>270</v>
@@ -2584,13 +2584,13 @@
         <v>273433</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>491</v>
@@ -2599,13 +2599,13 @@
         <v>507885</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2620,13 @@
         <v>284695</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>232</v>
@@ -2635,13 +2635,13 @@
         <v>242209</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>495</v>
@@ -2650,13 +2650,13 @@
         <v>526904</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,7 +2712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2724,13 +2724,13 @@
         <v>229680</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>216</v>
@@ -2739,13 +2739,13 @@
         <v>222136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>447</v>
@@ -2754,13 +2754,13 @@
         <v>451816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2775,13 @@
         <v>157030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -2790,13 +2790,13 @@
         <v>181850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>341</v>
@@ -2805,13 +2805,13 @@
         <v>338880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2867,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2879,13 @@
         <v>269533</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>439</v>
@@ -2894,13 +2894,13 @@
         <v>455427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>722</v>
@@ -2909,13 +2909,13 @@
         <v>724960</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2930,13 @@
         <v>232933</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -2945,13 +2945,13 @@
         <v>221415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>462</v>
@@ -2960,13 +2960,13 @@
         <v>454348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3034,13 @@
         <v>1239413</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>1609</v>
@@ -3049,13 +3049,13 @@
         <v>1657104</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>2834</v>
@@ -3064,13 +3064,13 @@
         <v>2896516</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3085,13 @@
         <v>2037131</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>1688</v>
@@ -3100,28 +3100,28 @@
         <v>1722094</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>3677</v>
       </c>
       <c r="N23" s="7">
-        <v>3759224</v>
+        <v>3759225</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3163,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8680A14B-0109-4DBC-B254-F530FCF15A86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C811028-825F-44CD-9C3E-354805AE5C13}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,13 +3323,13 @@
         <v>113686</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>154</v>
@@ -3338,13 +3338,13 @@
         <v>155837</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>267</v>
@@ -3353,13 +3353,13 @@
         <v>269523</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3374,13 @@
         <v>340460</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -3389,13 +3389,13 @@
         <v>274393</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>600</v>
@@ -3404,13 +3404,13 @@
         <v>614853</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3478,13 @@
         <v>212155</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>224</v>
@@ -3493,13 +3493,13 @@
         <v>238450</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>430</v>
@@ -3508,13 +3508,13 @@
         <v>450605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3529,13 @@
         <v>474932</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>347</v>
@@ -3544,13 +3544,13 @@
         <v>371805</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>808</v>
@@ -3559,13 +3559,13 @@
         <v>846737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3633,13 @@
         <v>233675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>302</v>
@@ -3648,13 +3648,13 @@
         <v>321950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>523</v>
@@ -3663,13 +3663,13 @@
         <v>555625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3684,13 @@
         <v>448188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>365</v>
@@ -3699,13 +3699,13 @@
         <v>388900</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>795</v>
@@ -3714,13 +3714,13 @@
         <v>837087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3788,13 @@
         <v>267969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>290</v>
@@ -3803,13 +3803,13 @@
         <v>333914</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>534</v>
@@ -3818,13 +3818,13 @@
         <v>601883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3839,13 @@
         <v>346648</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>249</v>
@@ -3854,13 +3854,13 @@
         <v>282285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>553</v>
@@ -3869,13 +3869,13 @@
         <v>628933</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3943,13 +3943,13 @@
         <v>244675</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -3958,13 +3958,13 @@
         <v>250410</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>450</v>
@@ -3973,13 +3973,13 @@
         <v>495085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3994,13 @@
         <v>184754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4009,13 +4009,13 @@
         <v>197390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>349</v>
@@ -4024,13 +4024,13 @@
         <v>382144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4098,13 +4098,13 @@
         <v>336244</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>456</v>
@@ -4113,13 +4113,13 @@
         <v>487688</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>754</v>
@@ -4128,13 +4128,13 @@
         <v>823932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4149,13 @@
         <v>223393</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -4164,13 +4164,13 @@
         <v>255287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>444</v>
@@ -4179,13 +4179,13 @@
         <v>478680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4253,13 @@
         <v>1408405</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>1652</v>
@@ -4268,13 +4268,13 @@
         <v>1788249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>2958</v>
@@ -4283,13 +4283,13 @@
         <v>3196654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4304,13 @@
         <v>2018374</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>1646</v>
@@ -4319,13 +4319,13 @@
         <v>1770060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>3549</v>
@@ -4334,13 +4334,13 @@
         <v>3788434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B285F3C1-85CD-4077-A272-8E716BC4F376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6C5D26-35B7-436D-B92D-3BDDA679B477}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4542,13 +4542,13 @@
         <v>109554</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>114</v>
@@ -4557,13 +4557,13 @@
         <v>112264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>218</v>
@@ -4572,13 +4572,13 @@
         <v>221817</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4593,13 @@
         <v>309909</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>290</v>
@@ -4608,13 +4608,13 @@
         <v>283491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>579</v>
@@ -4623,13 +4623,13 @@
         <v>593401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4697,13 @@
         <v>147438</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -4712,13 +4712,13 @@
         <v>193454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>340</v>
@@ -4727,13 +4727,13 @@
         <v>340892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4748,13 @@
         <v>443058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -4763,13 +4763,13 @@
         <v>370090</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>806</v>
@@ -4778,13 +4778,13 @@
         <v>813148</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4852,13 @@
         <v>202059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -4867,13 +4867,13 @@
         <v>272996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>463</v>
@@ -4882,13 +4882,13 @@
         <v>475055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4903,13 @@
         <v>467038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>393</v>
@@ -4918,13 +4918,13 @@
         <v>388390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>840</v>
@@ -4933,13 +4933,13 @@
         <v>855428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5007,13 @@
         <v>300298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>306</v>
@@ -5022,28 +5022,28 @@
         <v>332372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>577</v>
       </c>
       <c r="N13" s="7">
-        <v>632670</v>
+        <v>632671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5058,13 @@
         <v>345750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>296</v>
@@ -5073,13 +5073,13 @@
         <v>316705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>607</v>
@@ -5088,13 +5088,13 @@
         <v>662455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5136,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5162,13 +5162,13 @@
         <v>263212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>282</v>
@@ -5177,13 +5177,13 @@
         <v>321103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>514</v>
@@ -5192,13 +5192,13 @@
         <v>584314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5213,13 @@
         <v>214706</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>151</v>
@@ -5228,13 +5228,13 @@
         <v>175746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -5243,13 +5243,13 @@
         <v>390453</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,7 +5305,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5317,13 +5317,13 @@
         <v>369635</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>455</v>
@@ -5332,13 +5332,13 @@
         <v>540778</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>842</v>
@@ -5347,13 +5347,13 @@
         <v>910414</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5368,13 @@
         <v>221693</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -5383,13 +5383,13 @@
         <v>237153</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>440</v>
@@ -5398,13 +5398,13 @@
         <v>458845</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5472,13 @@
         <v>1392196</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>1628</v>
@@ -5487,13 +5487,13 @@
         <v>1772966</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>2954</v>
@@ -5502,13 +5502,13 @@
         <v>3165163</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5523,13 @@
         <v>2002154</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>1710</v>
@@ -5538,13 +5538,13 @@
         <v>1771576</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>3615</v>
@@ -5553,13 +5553,13 @@
         <v>3773729</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,7 +5615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CD2891-5880-41B0-A090-A3D5883DE228}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A44AB6B-DAD9-441E-9468-067A5DCD62A4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5761,13 @@
         <v>308642</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>170</v>
@@ -5776,13 +5776,13 @@
         <v>291493</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>313</v>
@@ -5791,13 +5791,13 @@
         <v>600135</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5812,13 @@
         <v>69037</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -5827,13 +5827,13 @@
         <v>63464</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -5842,13 +5842,13 @@
         <v>132501</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5916,13 @@
         <v>360975</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>372</v>
@@ -5931,13 +5931,13 @@
         <v>392319</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>621</v>
@@ -5946,13 +5946,13 @@
         <v>753294</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5967,13 @@
         <v>67421</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -5982,13 +5982,13 @@
         <v>106896</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>142</v>
@@ -5997,13 +5997,13 @@
         <v>174317</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6071,13 @@
         <v>461391</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>647</v>
@@ -6086,13 +6086,13 @@
         <v>473753</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>1088</v>
@@ -6101,13 +6101,13 @@
         <v>935143</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6122,13 @@
         <v>95861</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H11" s="7">
         <v>201</v>
@@ -6137,10 +6137,10 @@
         <v>136694</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>440</v>
@@ -6241,13 +6241,13 @@
         <v>543544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>447</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>1340</v>
@@ -6256,13 +6256,13 @@
         <v>1123206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6277,13 @@
         <v>144329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -6292,28 +6292,28 @@
         <v>203717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
       </c>
       <c r="N14" s="7">
-        <v>348046</v>
+        <v>348045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,7 +6355,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6381,13 +6381,13 @@
         <v>408421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H16" s="7">
         <v>630</v>
@@ -6396,13 +6396,13 @@
         <v>373568</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>465</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>462</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>1084</v>
@@ -6411,13 +6411,13 @@
         <v>781989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6432,13 @@
         <v>191736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>145</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
@@ -6447,13 +6447,13 @@
         <v>223495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>581</v>
@@ -6462,13 +6462,13 @@
         <v>415231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6524,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6533,16 +6533,16 @@
         <v>627</v>
       </c>
       <c r="D19" s="7">
-        <v>431749</v>
+        <v>431750</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
         <v>1000</v>
@@ -6551,13 +6551,13 @@
         <v>655724</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M19" s="7">
         <v>1627</v>
@@ -6566,13 +6566,13 @@
         <v>1087474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6587,13 @@
         <v>266005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>708</v>
@@ -6602,13 +6602,13 @@
         <v>370913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>1109</v>
@@ -6617,13 +6617,13 @@
         <v>636918</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6635,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6691,13 +6691,13 @@
         <v>2550838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
         <v>3645</v>
@@ -6706,28 +6706,28 @@
         <v>2730403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="M22" s="7">
         <v>6073</v>
       </c>
       <c r="N22" s="7">
-        <v>5281241</v>
+        <v>5281240</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6742,13 @@
         <v>834390</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H23" s="7">
         <v>1722</v>
@@ -6757,10 +6757,10 @@
         <v>1105178</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>506</v>
@@ -6820,7 +6820,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{377343A7-C919-4775-B852-CD43772143ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C322B832-89D2-4920-9D24-B7171619DED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B75CCC80-99A1-4F44-B85A-42F288E1C25A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8156ACD1-C829-47B2-9CA2-803705320261}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>20,77%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,23%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1323 +140,1329 @@
     <t>26,48%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>38,91%</t>
   </si>
   <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>32,19%</t>
   </si>
   <si>
-    <t>29,56%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
   </si>
   <si>
     <t>34,73%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
   </si>
   <si>
     <t>60,52%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>60,04%</t>
   </si>
   <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
     <t>65,74%</t>
   </si>
   <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>34,26%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
     <t>40,55%</t>
   </si>
   <si>
@@ -1472,9 +1478,6 @@
     <t>61,88%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
     <t>64,88%</t>
   </si>
   <si>
@@ -1500,9 +1503,6 @@
   </si>
   <si>
     <t>35,12%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
   </si>
   <si>
     <t>36,13%</t>
@@ -1980,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D34A61-B78E-4A19-AA0E-A5F3E240CD87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E48571A-D70A-459B-BCAD-9825A64F35EA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2572,10 +2572,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>270</v>
@@ -2584,13 +2584,13 @@
         <v>273433</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>491</v>
@@ -2599,13 +2599,13 @@
         <v>507885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2620,13 @@
         <v>284695</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>232</v>
@@ -2635,13 +2635,13 @@
         <v>242209</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>495</v>
@@ -2650,13 +2650,13 @@
         <v>526904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,7 +2712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2724,13 +2724,13 @@
         <v>229680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>216</v>
@@ -2739,13 +2739,13 @@
         <v>222136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>447</v>
@@ -2754,13 +2754,13 @@
         <v>451816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2775,13 @@
         <v>157030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -2790,13 +2790,13 @@
         <v>181850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>341</v>
@@ -2805,13 +2805,13 @@
         <v>338880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2867,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2879,13 @@
         <v>269533</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>439</v>
@@ -2894,13 +2894,13 @@
         <v>455427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>722</v>
@@ -2909,13 +2909,13 @@
         <v>724960</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2930,13 @@
         <v>232933</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -2945,13 +2945,13 @@
         <v>221415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>462</v>
@@ -2960,13 +2960,13 @@
         <v>454348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3034,13 @@
         <v>1239413</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1609</v>
@@ -3049,13 +3049,13 @@
         <v>1657104</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>2834</v>
@@ -3064,13 +3064,13 @@
         <v>2896516</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,16 +3082,16 @@
         <v>1989</v>
       </c>
       <c r="D23" s="7">
-        <v>2037131</v>
+        <v>2037130</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>1688</v>
@@ -3100,13 +3100,13 @@
         <v>1722094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>3677</v>
@@ -3115,13 +3115,13 @@
         <v>3759225</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3133,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C811028-825F-44CD-9C3E-354805AE5C13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B409775-A446-489F-B719-4F4BCD23FB10}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,13 +3323,13 @@
         <v>113686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>154</v>
@@ -3338,13 +3338,13 @@
         <v>155837</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>267</v>
@@ -3353,13 +3353,13 @@
         <v>269523</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3374,13 @@
         <v>340460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -3389,13 +3389,13 @@
         <v>274393</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>600</v>
@@ -3404,13 +3404,13 @@
         <v>614853</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3478,13 @@
         <v>212155</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>224</v>
@@ -3493,13 +3493,13 @@
         <v>238450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>430</v>
@@ -3508,13 +3508,13 @@
         <v>450605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3529,13 @@
         <v>474932</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>347</v>
@@ -3544,13 +3544,13 @@
         <v>371805</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>808</v>
@@ -3559,13 +3559,13 @@
         <v>846737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3633,13 @@
         <v>233675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>302</v>
@@ -3648,13 +3648,13 @@
         <v>321950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>523</v>
@@ -3663,13 +3663,13 @@
         <v>555625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3684,13 @@
         <v>448188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>365</v>
@@ -3699,13 +3699,13 @@
         <v>388900</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>795</v>
@@ -3714,13 +3714,13 @@
         <v>837087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3788,13 @@
         <v>267969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>290</v>
@@ -3803,13 +3803,13 @@
         <v>333914</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>534</v>
@@ -3818,13 +3818,13 @@
         <v>601883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3839,13 @@
         <v>346648</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>249</v>
@@ -3854,13 +3854,13 @@
         <v>282285</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>553</v>
@@ -3869,13 +3869,13 @@
         <v>628933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3943,13 +3943,13 @@
         <v>244675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -3958,13 +3958,13 @@
         <v>250410</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>450</v>
@@ -3973,13 +3973,13 @@
         <v>495085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3994,13 @@
         <v>184754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4009,13 +4009,13 @@
         <v>197390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>349</v>
@@ -4024,13 +4024,13 @@
         <v>382144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4098,13 +4098,13 @@
         <v>336244</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>456</v>
@@ -4113,13 +4113,13 @@
         <v>487688</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>754</v>
@@ -4128,13 +4128,13 @@
         <v>823932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4149,13 @@
         <v>223393</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -4164,13 +4164,13 @@
         <v>255287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>444</v>
@@ -4179,13 +4179,13 @@
         <v>478680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4253,13 @@
         <v>1408405</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1652</v>
@@ -4268,13 +4268,13 @@
         <v>1788249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>2958</v>
@@ -4283,13 +4283,13 @@
         <v>3196654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4304,13 @@
         <v>2018374</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>1646</v>
@@ -4319,13 +4319,13 @@
         <v>1770060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>3549</v>
@@ -4334,13 +4334,13 @@
         <v>3788434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6C5D26-35B7-436D-B92D-3BDDA679B477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6EF26B-E127-46AE-A9FB-D0D8F1E74A65}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4542,13 +4542,13 @@
         <v>109554</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>114</v>
@@ -4557,13 +4557,13 @@
         <v>112264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>218</v>
@@ -4572,13 +4572,13 @@
         <v>221817</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4593,13 @@
         <v>309909</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>290</v>
@@ -4608,13 +4608,13 @@
         <v>283491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>579</v>
@@ -4623,13 +4623,13 @@
         <v>593401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4697,13 @@
         <v>147438</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -4712,13 +4712,13 @@
         <v>193454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>340</v>
@@ -4727,13 +4727,13 @@
         <v>340892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4748,13 @@
         <v>443058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -4763,13 +4763,13 @@
         <v>370090</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>806</v>
@@ -4778,13 +4778,13 @@
         <v>813148</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4852,13 @@
         <v>202059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -4867,13 +4867,13 @@
         <v>272996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>463</v>
@@ -4882,13 +4882,13 @@
         <v>475055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4903,13 @@
         <v>467038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>393</v>
@@ -4918,13 +4918,13 @@
         <v>388390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>840</v>
@@ -4933,13 +4933,13 @@
         <v>855428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5007,13 @@
         <v>300298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>306</v>
@@ -5022,28 +5022,28 @@
         <v>332372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>577</v>
       </c>
       <c r="N13" s="7">
-        <v>632671</v>
+        <v>632670</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5058,13 @@
         <v>345750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>296</v>
@@ -5073,13 +5073,13 @@
         <v>316705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>607</v>
@@ -5088,13 +5088,13 @@
         <v>662455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5136,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5162,13 +5162,13 @@
         <v>263212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>282</v>
@@ -5177,13 +5177,13 @@
         <v>321103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>514</v>
@@ -5192,13 +5192,13 @@
         <v>584314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5213,13 @@
         <v>214706</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>151</v>
@@ -5228,13 +5228,13 @@
         <v>175746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -5243,13 +5243,13 @@
         <v>390453</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,7 +5305,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5317,13 +5317,13 @@
         <v>369635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>455</v>
@@ -5332,13 +5332,13 @@
         <v>540778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>842</v>
@@ -5347,13 +5347,13 @@
         <v>910414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5368,13 @@
         <v>221693</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -5383,13 +5383,13 @@
         <v>237153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>440</v>
@@ -5398,13 +5398,13 @@
         <v>458845</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5472,13 @@
         <v>1392196</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>1628</v>
@@ -5487,13 +5487,13 @@
         <v>1772966</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M22" s="7">
         <v>2954</v>
@@ -5502,13 +5502,13 @@
         <v>3165163</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5523,13 @@
         <v>2002154</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H23" s="7">
         <v>1710</v>
@@ -5538,13 +5538,13 @@
         <v>1771576</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>3615</v>
@@ -5553,13 +5553,13 @@
         <v>3773729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,7 +5615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A44AB6B-DAD9-441E-9468-067A5DCD62A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301053C8-D6B1-4309-925E-AFA714A03B69}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5761,13 @@
         <v>308642</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>170</v>
@@ -5776,13 +5776,13 @@
         <v>291493</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>313</v>
@@ -5791,13 +5791,13 @@
         <v>600135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5812,13 @@
         <v>69037</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -5827,13 +5827,13 @@
         <v>63464</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -5842,13 +5842,13 @@
         <v>132501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5916,13 @@
         <v>360975</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>372</v>
@@ -5931,13 +5931,13 @@
         <v>392319</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>621</v>
@@ -5946,13 +5946,13 @@
         <v>753294</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5967,13 @@
         <v>67421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -5982,13 +5982,13 @@
         <v>106896</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>142</v>
@@ -5997,13 +5997,13 @@
         <v>174317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6071,13 @@
         <v>461391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>647</v>
@@ -6086,13 +6086,13 @@
         <v>473753</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>1088</v>
@@ -6101,13 +6101,13 @@
         <v>935143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6122,13 @@
         <v>95861</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>201</v>
@@ -6137,13 +6137,13 @@
         <v>136694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>306</v>
@@ -6152,13 +6152,13 @@
         <v>232556</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6226,13 @@
         <v>579661</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H13" s="7">
         <v>826</v>
@@ -6241,13 +6241,13 @@
         <v>543544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>1340</v>
@@ -6256,13 +6256,13 @@
         <v>1123206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6277,13 @@
         <v>144329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6384,7 +6384,7 @@
         <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>463</v>
@@ -6402,7 +6402,7 @@
         <v>465</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>466</v>
       </c>
       <c r="M16" s="7">
         <v>1084</v>
@@ -6411,13 +6411,13 @@
         <v>781989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6432,13 @@
         <v>191736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
@@ -6447,13 +6447,13 @@
         <v>223495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>581</v>
@@ -6462,13 +6462,13 @@
         <v>415231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6524,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6536,13 +6536,13 @@
         <v>431750</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H19" s="7">
         <v>1000</v>
@@ -6551,13 +6551,13 @@
         <v>655724</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M19" s="7">
         <v>1627</v>
@@ -6566,13 +6566,13 @@
         <v>1087474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6587,13 @@
         <v>266005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>708</v>
@@ -6712,7 +6712,7 @@
         <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>6073</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C322B832-89D2-4920-9D24-B7171619DED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5FC0D7D-4775-48D4-BB0C-778D0B88C49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8156ACD1-C829-47B2-9CA2-803705320261}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{81773B6B-E672-4E0F-AA23-14D6672D0279}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
-    <t>Hogares con personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares según si tienen personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>20,77%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,23%</t>
   </si>
   <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1435 +140,1435 @@
     <t>26,48%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
   </si>
   <si>
     <t>38,91%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>32,19%</t>
   </si>
   <si>
-    <t>29,71%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>41,49%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>58,51%</t>
   </si>
   <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
     <t>60,1%</t>
   </si>
   <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>43,6%</t>
   </si>
   <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
   </si>
   <si>
     <t>54,19%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
+    <t>58,4%</t>
   </si>
   <si>
     <t>48,9%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
   </si>
   <si>
     <t>56,4%</t>
   </si>
   <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
   </si>
   <si>
     <t>45,81%</t>
   </si>
   <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>41,6%</t>
   </si>
   <si>
     <t>51,1%</t>
   </si>
   <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
   </si>
   <si>
     <t>56,98%</t>
   </si>
   <si>
-    <t>51,52%</t>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>61,79%</t>
   </si>
   <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>69,85%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>30,2%</t>
   </si>
   <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>41,28%</t>
   </si>
   <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>35,71%</t>
   </si>
   <si>
-    <t>32,92%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>69,8%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
   <si>
     <t>58,72%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
   </si>
   <si>
     <t>64,29%</t>
   </si>
   <si>
-    <t>67,08%</t>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>46,48%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>41,78%</t>
   </si>
   <si>
     <t>51,21%</t>
   </si>
   <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>48,85%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>53,52%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
+    <t>58,22%</t>
   </si>
   <si>
     <t>48,79%</t>
   </si>
   <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
   </si>
   <si>
     <t>51,15%</t>
   </si>
   <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
   </si>
   <si>
     <t>66,49%</t>
   </si>
   <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>33,51%</t>
   </si>
   <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>50,02%</t>
   </si>
   <si>
-    <t>51,59%</t>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
   </si>
   <si>
     <t>45,61%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
   </si>
   <si>
     <t>58,98%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
   </si>
   <si>
     <t>49,98%</t>
   </si>
   <si>
-    <t>48,41%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>78,59%</t>
   </si>
   <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>81,21%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>21,41%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
   </si>
   <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>74,49%</t>
   </si>
   <si>
     <t>80,08%</t>
   </si>
   <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>25,51%</t>
   </si>
   <si>
     <t>19,92%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>80,06%</t>
   </si>
   <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
   </si>
   <si>
     <t>19,94%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>71,37%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
+    <t>65,84%</t>
   </si>
   <si>
     <t>65,32%</t>
   </si>
   <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>28,63%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
+    <t>34,16%</t>
   </si>
   <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>61,88%</t>
   </si>
   <si>
-    <t>64,88%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
   </si>
   <si>
     <t>63,87%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>35,12%</t>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>69,5%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>30,5%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E48571A-D70A-459B-BCAD-9825A64F35EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D9F30-A044-4A3A-A8A9-0A2B11FB0AA7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2915,7 +2915,7 @@
         <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2930,13 @@
         <v>232933</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -2945,13 +2945,13 @@
         <v>221415</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>462</v>
@@ -2960,13 +2960,13 @@
         <v>454348</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3034,13 @@
         <v>1239413</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1609</v>
@@ -3049,13 +3049,13 @@
         <v>1657104</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>2834</v>
@@ -3064,13 +3064,13 @@
         <v>2896516</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,16 +3082,16 @@
         <v>1989</v>
       </c>
       <c r="D23" s="7">
-        <v>2037130</v>
+        <v>2037131</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>1688</v>
@@ -3100,10 +3100,10 @@
         <v>1722094</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>138</v>
@@ -3112,7 +3112,7 @@
         <v>3677</v>
       </c>
       <c r="N23" s="7">
-        <v>3759225</v>
+        <v>3759224</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>139</v>
@@ -3133,7 +3133,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3163,7 +3163,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3199,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B409775-A446-489F-B719-4F4BCD23FB10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EFA854-057E-4C41-B08E-14FF9B6D828D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3806,10 +3806,10 @@
         <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>534</v>
@@ -3818,13 +3818,13 @@
         <v>601883</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3839,13 @@
         <v>346648</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>249</v>
@@ -3854,13 +3854,13 @@
         <v>282285</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>553</v>
@@ -3869,13 +3869,13 @@
         <v>628933</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3943,13 @@
         <v>244675</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -3958,13 +3958,13 @@
         <v>250410</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>450</v>
@@ -3973,13 +3973,13 @@
         <v>495085</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3994,13 @@
         <v>184754</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4009,10 +4009,10 @@
         <v>197390</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>228</v>
@@ -4418,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6EF26B-E127-46AE-A9FB-D0D8F1E74A65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA69E0B-F93A-455D-9267-9536D80CFE3D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4888,7 +4888,7 @@
         <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4903,13 @@
         <v>467038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>393</v>
@@ -4918,13 +4918,13 @@
         <v>388390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>840</v>
@@ -4933,13 +4933,13 @@
         <v>855428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5007,13 @@
         <v>300298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>306</v>
@@ -5022,13 +5022,13 @@
         <v>332372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>577</v>
@@ -5037,13 +5037,13 @@
         <v>632670</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,10 +5058,10 @@
         <v>345750</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>332</v>
@@ -5177,13 +5177,13 @@
         <v>321103</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>514</v>
@@ -5192,13 +5192,13 @@
         <v>584314</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5213,13 @@
         <v>214706</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>151</v>
@@ -5228,13 +5228,13 @@
         <v>175746</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -5243,13 +5243,13 @@
         <v>390453</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5317,13 @@
         <v>369635</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>455</v>
@@ -5332,13 +5332,13 @@
         <v>540778</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>842</v>
@@ -5347,13 +5347,13 @@
         <v>910414</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5368,13 @@
         <v>221693</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -5383,13 +5383,13 @@
         <v>237153</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>440</v>
@@ -5398,13 +5398,13 @@
         <v>458845</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5472,13 @@
         <v>1392196</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>1628</v>
@@ -5487,13 +5487,13 @@
         <v>1772966</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M22" s="7">
         <v>2954</v>
@@ -5502,13 +5502,13 @@
         <v>3165163</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5523,13 @@
         <v>2002154</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H23" s="7">
         <v>1710</v>
@@ -5538,13 +5538,13 @@
         <v>1771576</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>3615</v>
@@ -5637,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301053C8-D6B1-4309-925E-AFA714A03B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096BBDC5-5562-4D70-93A2-6018BB828EEE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6092,7 +6092,7 @@
         <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>1088</v>
@@ -6101,13 +6101,13 @@
         <v>935143</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6122,13 @@
         <v>95861</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>201</v>
@@ -6137,13 +6137,13 @@
         <v>136694</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>306</v>
@@ -6152,13 +6152,13 @@
         <v>232556</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6226,13 @@
         <v>579661</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H13" s="7">
         <v>826</v>
@@ -6241,13 +6241,13 @@
         <v>543544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>448</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>449</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>1340</v>
@@ -6256,13 +6256,13 @@
         <v>1123206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6277,13 @@
         <v>144329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -6292,28 +6292,28 @@
         <v>203717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
       </c>
       <c r="N14" s="7">
-        <v>348045</v>
+        <v>348046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,7 +6355,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6381,13 +6381,13 @@
         <v>408421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>459</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H16" s="7">
         <v>630</v>
@@ -6396,13 +6396,13 @@
         <v>373568</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>465</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M16" s="7">
         <v>1084</v>
@@ -6411,13 +6411,13 @@
         <v>781989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6432,13 @@
         <v>191736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
@@ -6447,13 +6447,13 @@
         <v>223495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>581</v>
@@ -6462,13 +6462,13 @@
         <v>415231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,16 +6533,16 @@
         <v>627</v>
       </c>
       <c r="D19" s="7">
-        <v>431750</v>
+        <v>431749</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>1000</v>
@@ -6551,13 +6551,13 @@
         <v>655724</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>1627</v>
@@ -6566,13 +6566,13 @@
         <v>1087474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6587,13 @@
         <v>266005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>708</v>
@@ -6602,13 +6602,13 @@
         <v>370913</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>1109</v>
@@ -6617,13 +6617,13 @@
         <v>636918</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6635,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6691,13 +6691,13 @@
         <v>2550838</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H22" s="7">
         <v>3645</v>
@@ -6706,28 +6706,28 @@
         <v>2730403</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>6073</v>
       </c>
       <c r="N22" s="7">
-        <v>5281240</v>
+        <v>5281241</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6742,13 @@
         <v>834390</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="H23" s="7">
         <v>1722</v>
@@ -6757,10 +6757,10 @@
         <v>1105178</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>506</v>
@@ -6820,7 +6820,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5FC0D7D-4775-48D4-BB0C-778D0B88C49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{196C4E1E-FB72-4510-BEC6-E3291198E3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{81773B6B-E672-4E0F-AA23-14D6672D0279}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FEF26335-9176-4EB2-91D0-23CD98022BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="579">
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,1507 +68,1714 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna condición, enfermedad crónica o limitación en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
   </si>
   <si>
     <t>43,56%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna condición en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
   </si>
 </sst>
 </file>
@@ -1980,8 +2187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78D9F30-A044-4A3A-A8A9-0A2B11FB0AA7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8031772F-A3D6-497A-A13A-B81AB09C7CB8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2098,10 +2305,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7">
-        <v>102638</v>
+        <v>121591</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2113,10 +2320,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="I4" s="7">
-        <v>155263</v>
+        <v>184320</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2128,10 +2335,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="N4" s="7">
-        <v>257901</v>
+        <v>305910</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2149,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="D5" s="7">
-        <v>391426</v>
+        <v>372473</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2164,10 +2371,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="I5" s="7">
-        <v>312226</v>
+        <v>283169</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2179,10 +2386,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>719</v>
+        <v>668</v>
       </c>
       <c r="N5" s="7">
-        <v>703652</v>
+        <v>655643</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2253,10 +2460,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="D7" s="7">
-        <v>194785</v>
+        <v>227109</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2268,10 +2475,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="I7" s="7">
-        <v>243361</v>
+        <v>281309</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2283,10 +2490,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>418</v>
+        <v>489</v>
       </c>
       <c r="N7" s="7">
-        <v>438146</v>
+        <v>508417</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2304,10 +2511,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="D8" s="7">
-        <v>540704</v>
+        <v>508380</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2319,10 +2526,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="I8" s="7">
-        <v>382133</v>
+        <v>344185</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2334,10 +2541,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>876</v>
+        <v>805</v>
       </c>
       <c r="N8" s="7">
-        <v>922836</v>
+        <v>852565</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2408,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="D10" s="7">
-        <v>208325</v>
+        <v>235449</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2423,10 +2630,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="I10" s="7">
-        <v>307483</v>
+        <v>385357</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2438,10 +2645,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>487</v>
+        <v>590</v>
       </c>
       <c r="N10" s="7">
-        <v>515808</v>
+        <v>620806</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2459,10 +2666,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="D11" s="7">
-        <v>430343</v>
+        <v>403219</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2474,10 +2681,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>367</v>
+        <v>292</v>
       </c>
       <c r="I11" s="7">
-        <v>382261</v>
+        <v>304387</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2489,10 +2696,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>784</v>
+        <v>681</v>
       </c>
       <c r="N11" s="7">
-        <v>812604</v>
+        <v>707606</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2563,10 +2770,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="D13" s="7">
-        <v>234452</v>
+        <v>264498</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2578,10 +2785,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="I13" s="7">
-        <v>273433</v>
+        <v>343491</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2593,10 +2800,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>491</v>
+        <v>589</v>
       </c>
       <c r="N13" s="7">
-        <v>507885</v>
+        <v>607989</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2614,10 +2821,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>284695</v>
+        <v>254649</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2629,10 +2836,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="I14" s="7">
-        <v>242209</v>
+        <v>172151</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2644,10 +2851,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="N14" s="7">
-        <v>526904</v>
+        <v>426800</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2718,10 +2925,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="D16" s="7">
-        <v>229680</v>
+        <v>297187</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2733,10 +2940,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="I16" s="7">
-        <v>222136</v>
+        <v>323911</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2748,10 +2955,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>447</v>
+        <v>620</v>
       </c>
       <c r="N16" s="7">
-        <v>451816</v>
+        <v>621098</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2769,10 +2976,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>157030</v>
+        <v>89523</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2784,10 +2991,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="I17" s="7">
-        <v>181850</v>
+        <v>80075</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2799,10 +3006,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>341</v>
+        <v>168</v>
       </c>
       <c r="N17" s="7">
-        <v>338880</v>
+        <v>169598</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2873,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="D19" s="7">
-        <v>269533</v>
+        <v>236641</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2888,10 +3095,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>439</v>
+        <v>345</v>
       </c>
       <c r="I19" s="7">
-        <v>455427</v>
+        <v>318631</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2903,10 +3110,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>722</v>
+        <v>591</v>
       </c>
       <c r="N19" s="7">
-        <v>724960</v>
+        <v>555272</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2915,7 +3122,7 @@
         <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,49 +3131,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7">
-        <v>232933</v>
+        <v>55942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>221415</v>
+        <v>24303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>462</v>
+        <v>83</v>
       </c>
       <c r="N20" s="7">
-        <v>454348</v>
+        <v>80245</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2990,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3005,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3022,55 +3229,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1225</v>
+        <v>205</v>
       </c>
       <c r="D22" s="7">
-        <v>1239413</v>
+        <v>195189</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1609</v>
+        <v>278</v>
       </c>
       <c r="I22" s="7">
-        <v>1657104</v>
+        <v>320026</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>2834</v>
+        <v>483</v>
       </c>
       <c r="N22" s="7">
-        <v>2896516</v>
+        <v>515215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,49 +3286,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1989</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>2037131</v>
+        <v>14694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1688</v>
+        <v>12</v>
       </c>
       <c r="I23" s="7">
-        <v>1722094</v>
+        <v>13882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>3677</v>
+        <v>27</v>
       </c>
       <c r="N23" s="7">
-        <v>3759224</v>
+        <v>28576</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,63 +3337,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1574</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1577663</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2108</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2157045</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3682</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3734709</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1640</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1698880</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1189</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1222152</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2829</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2921032</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3199,8 +3562,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EFA854-057E-4C41-B08E-14FF9B6D828D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4153CC-4E11-4F67-92A4-7A4762325576}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3216,7 +3579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,49 +3680,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="D4" s="7">
-        <v>113686</v>
+        <v>151917</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="I4" s="7">
-        <v>155837</v>
+        <v>188737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="N4" s="7">
-        <v>269523</v>
+        <v>340654</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,49 +3731,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="D5" s="7">
-        <v>340460</v>
+        <v>302229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="I5" s="7">
-        <v>274393</v>
+        <v>241493</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
-        <v>600</v>
+        <v>530</v>
       </c>
       <c r="N5" s="7">
-        <v>614853</v>
+        <v>543722</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,49 +3835,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="D7" s="7">
-        <v>212155</v>
+        <v>278845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="I7" s="7">
-        <v>238450</v>
+        <v>302003</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
-        <v>430</v>
+        <v>557</v>
       </c>
       <c r="N7" s="7">
-        <v>450605</v>
+        <v>580849</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,49 +3886,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>461</v>
+        <v>392</v>
       </c>
       <c r="D8" s="7">
-        <v>474932</v>
+        <v>408242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="I8" s="7">
-        <v>371805</v>
+        <v>308252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
-        <v>808</v>
+        <v>681</v>
       </c>
       <c r="N8" s="7">
-        <v>846737</v>
+        <v>716493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,49 +3990,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="D10" s="7">
-        <v>233675</v>
+        <v>293889</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
-        <v>302</v>
+        <v>387</v>
       </c>
       <c r="I10" s="7">
-        <v>321950</v>
+        <v>412126</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
-        <v>523</v>
+        <v>664</v>
       </c>
       <c r="N10" s="7">
-        <v>555625</v>
+        <v>706014</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,49 +4041,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="D11" s="7">
-        <v>448188</v>
+        <v>387974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="I11" s="7">
-        <v>388900</v>
+        <v>298724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
-        <v>795</v>
+        <v>654</v>
       </c>
       <c r="N11" s="7">
-        <v>837087</v>
+        <v>686698</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,49 +4145,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="D13" s="7">
-        <v>267969</v>
+        <v>319924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="I13" s="7">
-        <v>333914</v>
+        <v>451585</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
-        <v>534</v>
+        <v>684</v>
       </c>
       <c r="N13" s="7">
-        <v>601883</v>
+        <v>771509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,49 +4196,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="D14" s="7">
-        <v>346648</v>
+        <v>294693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="I14" s="7">
-        <v>282285</v>
+        <v>164614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
-        <v>553</v>
+        <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>628933</v>
+        <v>459307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,49 +4300,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D16" s="7">
-        <v>244675</v>
+        <v>332914</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="I16" s="7">
-        <v>250410</v>
+        <v>393510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
-        <v>450</v>
+        <v>662</v>
       </c>
       <c r="N16" s="7">
-        <v>495085</v>
+        <v>726424</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,49 +4351,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>184754</v>
+        <v>96515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>197390</v>
+        <v>54290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="N17" s="7">
-        <v>382144</v>
+        <v>150805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,49 +4455,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D19" s="7">
-        <v>336244</v>
+        <v>291647</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
-        <v>456</v>
+        <v>326</v>
       </c>
       <c r="I19" s="7">
-        <v>487688</v>
+        <v>335068</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
-        <v>754</v>
+        <v>591</v>
       </c>
       <c r="N19" s="7">
-        <v>823932</v>
+        <v>626715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,49 +4506,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="D20" s="7">
-        <v>223393</v>
+        <v>18139</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I20" s="7">
-        <v>255287</v>
+        <v>18928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>444</v>
+        <v>35</v>
       </c>
       <c r="N20" s="7">
-        <v>478680</v>
+        <v>37067</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,10 +4557,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4209,10 +4572,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4224,10 +4587,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4241,55 +4604,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1306</v>
+        <v>211</v>
       </c>
       <c r="D22" s="7">
-        <v>1408405</v>
+        <v>237815</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
-        <v>1652</v>
+        <v>341</v>
       </c>
       <c r="I22" s="7">
-        <v>1788249</v>
+        <v>378794</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
-        <v>2958</v>
+        <v>552</v>
       </c>
       <c r="N22" s="7">
-        <v>3196654</v>
+        <v>616609</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,49 +4661,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1903</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>2018374</v>
+        <v>12036</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
-        <v>1646</v>
+        <v>9</v>
       </c>
       <c r="I23" s="7">
-        <v>1770060</v>
+        <v>10185</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
-        <v>3549</v>
+        <v>20</v>
       </c>
       <c r="N23" s="7">
-        <v>3788434</v>
+        <v>22221</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,63 +4712,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1774</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1906951</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2273</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2461823</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4047</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4368774</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1435</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1519828</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1025</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1096486</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2460</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2616314</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4418,8 +4937,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA69E0B-F93A-455D-9267-9536D80CFE3D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B89F93-DCCA-47AA-BFF5-D04059CE97AF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4435,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,49 +5055,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D4" s="7">
-        <v>109554</v>
+        <v>136525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I4" s="7">
-        <v>112264</v>
+        <v>145839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="N4" s="7">
-        <v>221817</v>
+        <v>282365</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,49 +5106,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="D5" s="7">
-        <v>309909</v>
+        <v>282938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="I5" s="7">
-        <v>283491</v>
+        <v>249916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
-        <v>579</v>
+        <v>521</v>
       </c>
       <c r="N5" s="7">
-        <v>593401</v>
+        <v>532853</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,49 +5210,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D7" s="7">
-        <v>147438</v>
+        <v>178076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="I7" s="7">
-        <v>193454</v>
+        <v>236044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
-        <v>340</v>
+        <v>413</v>
       </c>
       <c r="N7" s="7">
-        <v>340892</v>
+        <v>414121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,49 +5261,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="D8" s="7">
-        <v>443058</v>
+        <v>412420</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="I8" s="7">
-        <v>370090</v>
+        <v>327500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
-        <v>806</v>
+        <v>733</v>
       </c>
       <c r="N8" s="7">
-        <v>813148</v>
+        <v>739919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,49 +5365,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="D10" s="7">
-        <v>202059</v>
+        <v>243901</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="I10" s="7">
-        <v>272996</v>
+        <v>331784</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
-        <v>463</v>
+        <v>561</v>
       </c>
       <c r="N10" s="7">
-        <v>475055</v>
+        <v>575685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,49 +5416,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="D11" s="7">
-        <v>467038</v>
+        <v>425196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="I11" s="7">
-        <v>388390</v>
+        <v>329602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
-        <v>840</v>
+        <v>742</v>
       </c>
       <c r="N11" s="7">
-        <v>855428</v>
+        <v>754798</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,49 +5520,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="D13" s="7">
-        <v>300298</v>
+        <v>356091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="I13" s="7">
-        <v>332372</v>
+        <v>401422</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
-        <v>577</v>
+        <v>691</v>
       </c>
       <c r="N13" s="7">
-        <v>632670</v>
+        <v>757513</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,49 +5571,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>345750</v>
+        <v>289957</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="I14" s="7">
-        <v>316705</v>
+        <v>247655</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
-        <v>607</v>
+        <v>493</v>
       </c>
       <c r="N14" s="7">
-        <v>662455</v>
+        <v>537612</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,49 +5675,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="D16" s="7">
-        <v>263212</v>
+        <v>319849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="I16" s="7">
-        <v>321103</v>
+        <v>411884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
-        <v>514</v>
+        <v>646</v>
       </c>
       <c r="N16" s="7">
-        <v>584314</v>
+        <v>731733</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,49 +5726,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="D17" s="7">
-        <v>214706</v>
+        <v>158069</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>175746</v>
+        <v>84965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
-        <v>343</v>
+        <v>211</v>
       </c>
       <c r="N17" s="7">
-        <v>390453</v>
+        <v>243034</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,49 +5830,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="D19" s="7">
-        <v>369635</v>
+        <v>297436</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>455</v>
+        <v>325</v>
       </c>
       <c r="I19" s="7">
-        <v>540778</v>
+        <v>344940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
-        <v>842</v>
+        <v>613</v>
       </c>
       <c r="N19" s="7">
-        <v>910414</v>
+        <v>642376</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,49 +5881,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>221693</v>
+        <v>36894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="I20" s="7">
-        <v>237153</v>
+        <v>32822</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="N20" s="7">
-        <v>458845</v>
+        <v>69716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5428,10 +5947,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5443,10 +5962,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5460,55 +5979,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1326</v>
+        <v>283</v>
       </c>
       <c r="D22" s="7">
-        <v>1392196</v>
+        <v>240756</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>1628</v>
+        <v>291</v>
       </c>
       <c r="I22" s="7">
-        <v>1772966</v>
+        <v>387423</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>2954</v>
+        <v>574</v>
       </c>
       <c r="N22" s="7">
-        <v>3165163</v>
+        <v>628179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,49 +6036,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1905</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>2002154</v>
+        <v>16242</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>1710</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>1771576</v>
+        <v>12746</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>3615</v>
+        <v>29</v>
       </c>
       <c r="N23" s="7">
-        <v>3773729</v>
+        <v>28988</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,63 +6087,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1706</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1772634</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2068</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2259337</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3774</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4031970</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1525</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1621716</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1270</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1285205</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2795</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2906922</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5637,8 +6312,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096BBDC5-5562-4D70-93A2-6018BB828EEE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B7DC95-64A8-46C1-8CB2-8BE10B7D8E4F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5654,7 +6329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,49 +6430,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>308642</v>
+        <v>114838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>291493</v>
+        <v>87970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
-        <v>313</v>
+        <v>93</v>
       </c>
       <c r="N4" s="7">
-        <v>600135</v>
+        <v>202808</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,49 +6481,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>69037</v>
+        <v>285149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="I5" s="7">
-        <v>63464</v>
+        <v>225230</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="N5" s="7">
-        <v>132501</v>
+        <v>510379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,7 +6535,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5875,7 +6550,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5890,7 +6565,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5910,49 +6585,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>360975</v>
+        <v>121227</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
-        <v>372</v>
+        <v>120</v>
       </c>
       <c r="I7" s="7">
-        <v>392319</v>
+        <v>124331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
-        <v>621</v>
+        <v>203</v>
       </c>
       <c r="N7" s="7">
-        <v>753294</v>
+        <v>245558</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,49 +6636,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="D8" s="7">
-        <v>67421</v>
+        <v>302320</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>341</v>
       </c>
       <c r="I8" s="7">
-        <v>106896</v>
+        <v>387762</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="M8" s="7">
-        <v>142</v>
+        <v>560</v>
       </c>
       <c r="N8" s="7">
-        <v>174317</v>
+        <v>690082</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,7 +6690,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6030,7 +6705,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6045,7 +6720,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6065,49 +6740,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>441</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7">
-        <v>461391</v>
+        <v>133721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="H10" s="7">
-        <v>647</v>
+        <v>273</v>
       </c>
       <c r="I10" s="7">
-        <v>473753</v>
+        <v>173986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="M10" s="7">
-        <v>1088</v>
+        <v>410</v>
       </c>
       <c r="N10" s="7">
-        <v>935143</v>
+        <v>307707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,49 +6791,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>105</v>
+        <v>409</v>
       </c>
       <c r="D11" s="7">
-        <v>95861</v>
+        <v>402617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7">
-        <v>201</v>
+        <v>575</v>
       </c>
       <c r="I11" s="7">
-        <v>136694</v>
+        <v>418016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
-        <v>306</v>
+        <v>984</v>
       </c>
       <c r="N11" s="7">
-        <v>232556</v>
+        <v>820633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,7 +6845,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6185,7 +6860,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6200,7 +6875,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6220,49 +6895,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>514</v>
+        <v>253</v>
       </c>
       <c r="D13" s="7">
-        <v>579661</v>
+        <v>248815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
-        <v>826</v>
+        <v>492</v>
       </c>
       <c r="I13" s="7">
-        <v>543544</v>
+        <v>296830</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
-        <v>1340</v>
+        <v>745</v>
       </c>
       <c r="N13" s="7">
-        <v>1123206</v>
+        <v>545645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,49 +6946,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>151</v>
+        <v>412</v>
       </c>
       <c r="D14" s="7">
-        <v>144329</v>
+        <v>638971</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
-        <v>315</v>
+        <v>649</v>
       </c>
       <c r="I14" s="7">
-        <v>203717</v>
+        <v>416051</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>506</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>508</v>
       </c>
       <c r="M14" s="7">
-        <v>466</v>
+        <v>1061</v>
       </c>
       <c r="N14" s="7">
-        <v>348046</v>
+        <v>1055022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +7000,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6340,7 +7015,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6355,7 +7030,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6375,49 +7050,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>454</v>
+        <v>340</v>
       </c>
       <c r="D16" s="7">
-        <v>408421</v>
+        <v>296422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
-        <v>630</v>
+        <v>546</v>
       </c>
       <c r="I16" s="7">
-        <v>373568</v>
+        <v>301097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>462</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
-        <v>1084</v>
+        <v>886</v>
       </c>
       <c r="N16" s="7">
-        <v>781989</v>
+        <v>597519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,49 +7101,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="D17" s="7">
-        <v>191736</v>
+        <v>264812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="I17" s="7">
-        <v>223495</v>
+        <v>246808</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>522</v>
       </c>
       <c r="M17" s="7">
-        <v>581</v>
+        <v>779</v>
       </c>
       <c r="N17" s="7">
-        <v>415231</v>
+        <v>511620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,7 +7155,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6495,7 +7170,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6510,7 +7185,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6530,49 +7205,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>627</v>
+        <v>309</v>
       </c>
       <c r="D19" s="7">
-        <v>431749</v>
+        <v>200003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
-        <v>1000</v>
+        <v>539</v>
       </c>
       <c r="I19" s="7">
-        <v>655724</v>
+        <v>469225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="M19" s="7">
-        <v>1627</v>
+        <v>848</v>
       </c>
       <c r="N19" s="7">
-        <v>1087474</v>
+        <v>669228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,49 +7256,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>401</v>
+        <v>261</v>
       </c>
       <c r="D20" s="7">
-        <v>266005</v>
+        <v>168162</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
-        <v>708</v>
+        <v>288</v>
       </c>
       <c r="I20" s="7">
-        <v>370913</v>
+        <v>139143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
-        <v>1109</v>
+        <v>549</v>
       </c>
       <c r="N20" s="7">
-        <v>636918</v>
+        <v>307305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6647,10 +7322,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6662,10 +7337,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6679,55 +7354,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2428</v>
+        <v>333</v>
       </c>
       <c r="D22" s="7">
-        <v>2550838</v>
+        <v>203749</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="H22" s="7">
-        <v>3645</v>
+        <v>676</v>
       </c>
       <c r="I22" s="7">
-        <v>2730403</v>
+        <v>325379</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
-        <v>6073</v>
+        <v>1009</v>
       </c>
       <c r="N22" s="7">
-        <v>5281241</v>
+        <v>529127</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,49 +7411,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>948</v>
+        <v>125</v>
       </c>
       <c r="D23" s="7">
-        <v>834390</v>
+        <v>79010</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
-        <v>1722</v>
+        <v>205</v>
       </c>
       <c r="I23" s="7">
-        <v>1105178</v>
+        <v>100452</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
-        <v>2670</v>
+        <v>330</v>
       </c>
       <c r="N23" s="7">
-        <v>1939568</v>
+        <v>179463</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,63 +7462,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1494</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1318774</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2700</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1778817</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4194</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3097592</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1882</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2141043</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2667</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1933463</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4549</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4074505</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
